--- a/CapstoneProject/Mar22-ScG2-Java ScG-B-IIHT-ProjectAllocationList-updated.xlsx
+++ b/CapstoneProject/Mar22-ScG2-Java ScG-B-IIHT-ProjectAllocationList-updated.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="312">
   <si>
     <t>E Name</t>
   </si>
@@ -940,23 +940,42 @@
     <t>nattala.ramakishore</t>
   </si>
   <si>
-    <t>Nattala.Venkata Ramakishore</t>
-  </si>
-  <si>
     <t xml:space="preserve">kaveri anil                        </t>
   </si>
   <si>
     <t xml:space="preserve"> kaveri.anil@infosys.com</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Roshan Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnu G Prabhu-1243011
+</t>
+  </si>
+  <si>
+    <t>vishnu.prabhu@infosys.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roshan.felix@infosys.com
+</t>
+  </si>
+  <si>
+    <t>badigi.jhansi@ad.infosys.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badigi Jhansi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nattala.ramakishore@infosys.com
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,6 +1001,20 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1021,11 +1054,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1033,8 +1070,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
@@ -1340,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1348,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2955,10 +3001,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
         <v>304</v>
-      </c>
-      <c r="B146" t="s">
-        <v>305</v>
       </c>
       <c r="C146" t="s">
         <v>207</v>
@@ -3027,28 +3073,77 @@
         <v>203</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="45">
       <c r="A153" t="s">
         <v>302</v>
       </c>
-      <c r="B153" t="s">
-        <v>303</v>
+      <c r="B153" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="C153" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" ht="30">
+      <c r="A154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="C154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="30">
+      <c r="A155" s="3" t="s">
         <v>306</v>
       </c>
+      <c r="B155" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="30">
+      <c r="A156" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B155" r:id="rId1"/>
+    <hyperlink ref="B154" r:id="rId2"/>
+    <hyperlink ref="B153" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CAAB4090796A14FBCF0BF214381EA2E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0364b17197f99c23bad80d75ab2e052b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69f33bce-84f3-44f7-a247-cedd1e5850f5" xmlns:ns3="a968dab5-9ef6-472d-af1d-e27ec3515573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15666e119edd59931ecde7552058b4ae" ns2:_="" ns3:_="">
     <xsd:import namespace="69f33bce-84f3-44f7-a247-cedd1e5850f5"/>
@@ -3227,22 +3322,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45721006-851C-40C9-BB08-2F273F0121A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C7FF649-173C-43A0-AD8E-F208D9C44AAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{381DDF2F-B8C8-46A7-86E1-DB247233A4C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3259,21 +3356,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C7FF649-173C-43A0-AD8E-F208D9C44AAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45721006-851C-40C9-BB08-2F273F0121A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>